--- a/BASES/PSA.xlsx
+++ b/BASES/PSA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1744">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1762">
   <x:si>
     <x:t>0</x:t>
   </x:si>
@@ -4046,6 +4046,60 @@
     <x:t>318</x:t>
   </x:si>
   <x:si>
+    <x:t>483695</x:t>
+  </x:si>
+  <x:si>
+    <x:t>343904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.566.673,21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>483696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>343905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.486.770,88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>483697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>343906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.794.950,41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>483698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>343907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>891.211,61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322</x:t>
+  </x:si>
+  <x:si>
     <x:t>00170202369600486795</x:t>
   </x:si>
   <x:si>
@@ -4067,7 +4121,7 @@
     <x:t>BBVA</x:t>
   </x:si>
   <x:si>
-    <x:t>319</x:t>
+    <x:t>323</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600486851</x:t>
@@ -4082,7 +4136,7 @@
     <x:t>208 Active Pk AT AM24</x:t>
   </x:si>
   <x:si>
-    <x:t>320</x:t>
+    <x:t>324</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600486868</x:t>
@@ -4094,7 +4148,7 @@
     <x:t>8ADUWNFPVRG551906</x:t>
   </x:si>
   <x:si>
-    <x:t>321</x:t>
+    <x:t>325</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600486876</x:t>
@@ -4106,7 +4160,7 @@
     <x:t>8ADUWNFPVRG551897</x:t>
   </x:si>
   <x:si>
-    <x:t>322</x:t>
+    <x:t>326</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600486884</x:t>
@@ -4118,7 +4172,7 @@
     <x:t>8ADUWNFPVRG551901</x:t>
   </x:si>
   <x:si>
-    <x:t>323</x:t>
+    <x:t>327</x:t>
   </x:si>
   <x:si>
     <x:t>00170202309600487279</x:t>
@@ -4133,7 +4187,7 @@
     <x:t>25/03/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>324</x:t>
+    <x:t>328</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600487287</x:t>
@@ -4145,7 +4199,7 @@
     <x:t>8ADUWNFPVRG544787</x:t>
   </x:si>
   <x:si>
-    <x:t>325</x:t>
+    <x:t>329</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600487295</x:t>
@@ -4157,7 +4211,7 @@
     <x:t>8ADUWNFPVRG551236</x:t>
   </x:si>
   <x:si>
-    <x:t>326</x:t>
+    <x:t>330</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600487325</x:t>
@@ -4172,7 +4226,7 @@
     <x:t>208 Allure Pk AM24</x:t>
   </x:si>
   <x:si>
-    <x:t>327</x:t>
+    <x:t>331</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600487333</x:t>
@@ -4184,7 +4238,7 @@
     <x:t>8ADUWNFPARG554927</x:t>
   </x:si>
   <x:si>
-    <x:t>328</x:t>
+    <x:t>332</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600488585</x:t>
@@ -4205,7 +4259,7 @@
     <x:t>27/03/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>329</x:t>
+    <x:t>333</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600488593</x:t>
@@ -4217,7 +4271,7 @@
     <x:t>8AEGCNFPARG556555</x:t>
   </x:si>
   <x:si>
-    <x:t>330</x:t>
+    <x:t>334</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600488607</x:t>
@@ -4229,7 +4283,7 @@
     <x:t>8AEGCNFPARG557347</x:t>
   </x:si>
   <x:si>
-    <x:t>331</x:t>
+    <x:t>335</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600488615</x:t>
@@ -4241,7 +4295,7 @@
     <x:t>8ADUWNFPARG555669</x:t>
   </x:si>
   <x:si>
-    <x:t>332</x:t>
+    <x:t>336</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600488623</x:t>
@@ -4253,7 +4307,7 @@
     <x:t>8ADUWNFPARG554935</x:t>
   </x:si>
   <x:si>
-    <x:t>333</x:t>
+    <x:t>337</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600488666</x:t>
@@ -4265,7 +4319,7 @@
     <x:t>8AEGCNFPARG555299</x:t>
   </x:si>
   <x:si>
-    <x:t>334</x:t>
+    <x:t>338</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600489001</x:t>
@@ -4283,7 +4337,7 @@
     <x:t>01/04/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>335</x:t>
+    <x:t>339</x:t>
   </x:si>
   <x:si>
     <x:t>00170202309600489018</x:t>
@@ -4295,7 +4349,7 @@
     <x:t>8ADUWNFPVRG555579</x:t>
   </x:si>
   <x:si>
-    <x:t>336</x:t>
+    <x:t>340</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600489026</x:t>
@@ -4307,7 +4361,7 @@
     <x:t>8ADUWNFPARG555672</x:t>
   </x:si>
   <x:si>
-    <x:t>337</x:t>
+    <x:t>341</x:t>
   </x:si>
   <x:si>
     <x:t>00170202309600489042</x:t>
@@ -4319,7 +4373,7 @@
     <x:t>8AEGCNFPARG557348</x:t>
   </x:si>
   <x:si>
-    <x:t>338</x:t>
+    <x:t>342</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600489050</x:t>
@@ -4331,7 +4385,7 @@
     <x:t>8ADUWNFPARG554907</x:t>
   </x:si>
   <x:si>
-    <x:t>339</x:t>
+    <x:t>343</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600489931</x:t>
@@ -4346,7 +4400,7 @@
     <x:t>02/01/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>340</x:t>
+    <x:t>344</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600489948</x:t>
@@ -4358,7 +4412,7 @@
     <x:t>8AEGCNFPARG557966</x:t>
   </x:si>
   <x:si>
-    <x:t>341</x:t>
+    <x:t>345</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600489956</x:t>
@@ -4370,7 +4424,7 @@
     <x:t>8AEGCNFPARG558366</x:t>
   </x:si>
   <x:si>
-    <x:t>342</x:t>
+    <x:t>346</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600489964</x:t>
@@ -4382,7 +4436,7 @@
     <x:t>8AEGCNFPARG555286</x:t>
   </x:si>
   <x:si>
-    <x:t>343</x:t>
+    <x:t>347</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600489972</x:t>
@@ -4394,7 +4448,7 @@
     <x:t>8AEGCNFPARG555296</x:t>
   </x:si>
   <x:si>
-    <x:t>344</x:t>
+    <x:t>348</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600490067</x:t>
@@ -4403,7 +4457,7 @@
     <x:t>8ADUWNFPARG555657</x:t>
   </x:si>
   <x:si>
-    <x:t>345</x:t>
+    <x:t>349</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600490075</x:t>
@@ -4415,7 +4469,7 @@
     <x:t>8ADUWNFPARG552977</x:t>
   </x:si>
   <x:si>
-    <x:t>346</x:t>
+    <x:t>350</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600490091</x:t>
@@ -4427,7 +4481,7 @@
     <x:t>8ADUWNFPARG556362</x:t>
   </x:si>
   <x:si>
-    <x:t>347</x:t>
+    <x:t>351</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600490121</x:t>
@@ -4439,7 +4493,7 @@
     <x:t>8ADUWNFPARG553312</x:t>
   </x:si>
   <x:si>
-    <x:t>348</x:t>
+    <x:t>352</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600490131</x:t>
@@ -4451,7 +4505,7 @@
     <x:t>8ADUWNFPARG552318</x:t>
   </x:si>
   <x:si>
-    <x:t>349</x:t>
+    <x:t>353</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600490148</x:t>
@@ -4463,7 +4517,7 @@
     <x:t>8ADUWNFPARG552806</x:t>
   </x:si>
   <x:si>
-    <x:t>350</x:t>
+    <x:t>354</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600490156</x:t>
@@ -4475,7 +4529,7 @@
     <x:t>8ADUWNFPARG553318</x:t>
   </x:si>
   <x:si>
-    <x:t>351</x:t>
+    <x:t>355</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600490172</x:t>
@@ -4487,7 +4541,7 @@
     <x:t>8ADUWNFPARG556371</x:t>
   </x:si>
   <x:si>
-    <x:t>352</x:t>
+    <x:t>356</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600490199</x:t>
@@ -4499,7 +4553,7 @@
     <x:t>8ADUWNFPVRG553303</x:t>
   </x:si>
   <x:si>
-    <x:t>353</x:t>
+    <x:t>357</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600490202</x:t>
@@ -4511,7 +4565,7 @@
     <x:t>8ADUWNFPARG556372</x:t>
   </x:si>
   <x:si>
-    <x:t>354</x:t>
+    <x:t>358</x:t>
   </x:si>
   <x:si>
     <x:t>00170202309600490210</x:t>
@@ -4523,7 +4577,7 @@
     <x:t>8ADUWNFPVRG556712</x:t>
   </x:si>
   <x:si>
-    <x:t>355</x:t>
+    <x:t>359</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600490245</x:t>
@@ -4535,7 +4589,7 @@
     <x:t>8ADUWNFPARG556350</x:t>
   </x:si>
   <x:si>
-    <x:t>356</x:t>
+    <x:t>360</x:t>
   </x:si>
   <x:si>
     <x:t>00170202309600490253</x:t>
@@ -4547,7 +4601,7 @@
     <x:t>8ADUWNFPARG554889</x:t>
   </x:si>
   <x:si>
-    <x:t>357</x:t>
+    <x:t>361</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600490261</x:t>
@@ -4559,7 +4613,7 @@
     <x:t>8ADUWNFPARG554874</x:t>
   </x:si>
   <x:si>
-    <x:t>358</x:t>
+    <x:t>362</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600490271</x:t>
@@ -4571,7 +4625,7 @@
     <x:t>8ADUWNFPARG556478</x:t>
   </x:si>
   <x:si>
-    <x:t>359</x:t>
+    <x:t>363</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600490288</x:t>
@@ -4583,7 +4637,7 @@
     <x:t>8ADUWNFPVRG554316</x:t>
   </x:si>
   <x:si>
-    <x:t>360</x:t>
+    <x:t>364</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600490393</x:t>
@@ -4595,7 +4649,7 @@
     <x:t>8ADUWNFPARG556486</x:t>
   </x:si>
   <x:si>
-    <x:t>361</x:t>
+    <x:t>365</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600490407</x:t>
@@ -4607,7 +4661,7 @@
     <x:t>8ADUWNFPVRG555637</x:t>
   </x:si>
   <x:si>
-    <x:t>362</x:t>
+    <x:t>366</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600490415</x:t>
@@ -4619,7 +4673,7 @@
     <x:t>8ADUWNFPARG555681</x:t>
   </x:si>
   <x:si>
-    <x:t>363</x:t>
+    <x:t>367</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600493422</x:t>
@@ -4646,7 +4700,7 @@
     <x:t>09/04/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>364</x:t>
+    <x:t>368</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600493430</x:t>
@@ -4658,7 +4712,7 @@
     <x:t>8ADUWNFPVRG557846</x:t>
   </x:si>
   <x:si>
-    <x:t>365</x:t>
+    <x:t>369</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600493449</x:t>
@@ -4670,7 +4724,7 @@
     <x:t>8ADUWNFPVRG558307</x:t>
   </x:si>
   <x:si>
-    <x:t>366</x:t>
+    <x:t>370</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600493457</x:t>
@@ -4682,7 +4736,7 @@
     <x:t>8ADUWNFPVRG558739</x:t>
   </x:si>
   <x:si>
-    <x:t>367</x:t>
+    <x:t>371</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600493465</x:t>
@@ -4694,7 +4748,7 @@
     <x:t>8ADUWNFPVRG559118</x:t>
   </x:si>
   <x:si>
-    <x:t>368</x:t>
+    <x:t>372</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600493473</x:t>
@@ -4706,7 +4760,7 @@
     <x:t>8ADUWNFPVRG556839</x:t>
   </x:si>
   <x:si>
-    <x:t>369</x:t>
+    <x:t>373</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600493481</x:t>
@@ -4718,7 +4772,7 @@
     <x:t>8ADUWNFPVRG558276</x:t>
   </x:si>
   <x:si>
-    <x:t>370</x:t>
+    <x:t>374</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600493491</x:t>
@@ -4730,7 +4784,7 @@
     <x:t>8ADUWNFPVRG558257</x:t>
   </x:si>
   <x:si>
-    <x:t>371</x:t>
+    <x:t>375</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600493503</x:t>
@@ -4742,7 +4796,7 @@
     <x:t>8ADUWNFPVRG558288</x:t>
   </x:si>
   <x:si>
-    <x:t>372</x:t>
+    <x:t>376</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600493511</x:t>
@@ -4757,7 +4811,7 @@
     <x:t>12.075.932,66</x:t>
   </x:si>
   <x:si>
-    <x:t>373</x:t>
+    <x:t>377</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600493521</x:t>
@@ -4772,7 +4826,7 @@
     <x:t>11.077.339,12</x:t>
   </x:si>
   <x:si>
-    <x:t>374</x:t>
+    <x:t>378</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600493538</x:t>
@@ -4784,7 +4838,7 @@
     <x:t>8ADUWNFPVRG557836</x:t>
   </x:si>
   <x:si>
-    <x:t>375</x:t>
+    <x:t>379</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600493546</x:t>
@@ -4796,7 +4850,7 @@
     <x:t>8ADUWNFPVRG559152</x:t>
   </x:si>
   <x:si>
-    <x:t>376</x:t>
+    <x:t>380</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600493554</x:t>
@@ -4808,7 +4862,7 @@
     <x:t>8ADUWNFPVRG557515</x:t>
   </x:si>
   <x:si>
-    <x:t>377</x:t>
+    <x:t>381</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600493562</x:t>
@@ -4823,7 +4877,7 @@
     <x:t>11.807.177,74</x:t>
   </x:si>
   <x:si>
-    <x:t>378</x:t>
+    <x:t>382</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600493570</x:t>
@@ -4835,7 +4889,7 @@
     <x:t>8ADUWNFPVRG557841</x:t>
   </x:si>
   <x:si>
-    <x:t>379</x:t>
+    <x:t>383</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600493589</x:t>
@@ -4847,7 +4901,7 @@
     <x:t>8ADUWNFPVRG556835</x:t>
   </x:si>
   <x:si>
-    <x:t>380</x:t>
+    <x:t>384</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600493597</x:t>
@@ -4859,7 +4913,7 @@
     <x:t>8ADUWNFPARG557139</x:t>
   </x:si>
   <x:si>
-    <x:t>381</x:t>
+    <x:t>385</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600493600</x:t>
@@ -4871,7 +4925,7 @@
     <x:t>8ADUWNFPARG557152</x:t>
   </x:si>
   <x:si>
-    <x:t>382</x:t>
+    <x:t>386</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600493619</x:t>
@@ -4883,7 +4937,7 @@
     <x:t>8ADUWNFPARG557142</x:t>
   </x:si>
   <x:si>
-    <x:t>383</x:t>
+    <x:t>387</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600493627</x:t>
@@ -4895,7 +4949,7 @@
     <x:t>8AEGCNFPARG558791</x:t>
   </x:si>
   <x:si>
-    <x:t>384</x:t>
+    <x:t>388</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600494811</x:t>
@@ -4913,7 +4967,7 @@
     <x:t>10/04/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>385</x:t>
+    <x:t>389</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600494828</x:t>
@@ -4925,7 +4979,7 @@
     <x:t>8ADUWNFPVRG559526</x:t>
   </x:si>
   <x:si>
-    <x:t>386</x:t>
+    <x:t>390</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600494836</x:t>
@@ -4937,7 +4991,7 @@
     <x:t>8ADUWNFPVRG559523</x:t>
   </x:si>
   <x:si>
-    <x:t>387</x:t>
+    <x:t>391</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600494844</x:t>
@@ -4949,7 +5003,7 @@
     <x:t>8ADUWNFPVRG558741</x:t>
   </x:si>
   <x:si>
-    <x:t>388</x:t>
+    <x:t>392</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600494968</x:t>
@@ -4961,7 +5015,7 @@
     <x:t>8AEGCNFPARG559195</x:t>
   </x:si>
   <x:si>
-    <x:t>389</x:t>
+    <x:t>393</x:t>
   </x:si>
   <x:si>
     <x:t>00170202379600495271</x:t>
@@ -4976,7 +5030,7 @@
     <x:t>11/04/2024</x:t>
   </x:si>
   <x:si>
-    <x:t>390</x:t>
+    <x:t>394</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600495281</x:t>
@@ -4988,7 +5042,7 @@
     <x:t>8AEGCNFPARG560370</x:t>
   </x:si>
   <x:si>
-    <x:t>391</x:t>
+    <x:t>395</x:t>
   </x:si>
   <x:si>
     <x:t>00170202309600495298</x:t>
@@ -5000,7 +5054,7 @@
     <x:t>8ADUWNFPVRG556843</x:t>
   </x:si>
   <x:si>
-    <x:t>392</x:t>
+    <x:t>396</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600495301</x:t>
@@ -5012,7 +5066,7 @@
     <x:t>8ADUWNFPVRG560336</x:t>
   </x:si>
   <x:si>
-    <x:t>393</x:t>
+    <x:t>397</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600495311</x:t>
@@ -5024,7 +5078,7 @@
     <x:t>8ADUWNFPVRG558239</x:t>
   </x:si>
   <x:si>
-    <x:t>394</x:t>
+    <x:t>398</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600495328</x:t>
@@ -5036,7 +5090,7 @@
     <x:t>8ADUWNFPVRG557228</x:t>
   </x:si>
   <x:si>
-    <x:t>395</x:t>
+    <x:t>399</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600495336</x:t>
@@ -5048,7 +5102,7 @@
     <x:t>8ADUWNFPVRG558275</x:t>
   </x:si>
   <x:si>
-    <x:t>396</x:t>
+    <x:t>400</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600495344</x:t>
@@ -5060,7 +5114,7 @@
     <x:t>8ADUWNFPVRG556859</x:t>
   </x:si>
   <x:si>
-    <x:t>397</x:t>
+    <x:t>401</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600495352</x:t>
@@ -5072,7 +5126,7 @@
     <x:t>8ADUWNFPVRG556876</x:t>
   </x:si>
   <x:si>
-    <x:t>398</x:t>
+    <x:t>402</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600495360</x:t>
@@ -5087,7 +5141,7 @@
     <x:t>208 Allure Pk AT AM24</x:t>
   </x:si>
   <x:si>
-    <x:t>399</x:t>
+    <x:t>403</x:t>
   </x:si>
   <x:si>
     <x:t>00170202389600495379</x:t>
@@ -5102,7 +5156,7 @@
     <x:t>12.344.687,56</x:t>
   </x:si>
   <x:si>
-    <x:t>400</x:t>
+    <x:t>404</x:t>
   </x:si>
   <x:si>
     <x:t>00170202319600495387</x:t>
@@ -5114,7 +5168,7 @@
     <x:t>8ADUWNFPVRG556727</x:t>
   </x:si>
   <x:si>
-    <x:t>401</x:t>
+    <x:t>405</x:t>
   </x:si>
   <x:si>
     <x:t>00170202349600495395</x:t>
@@ -5126,7 +5180,7 @@
     <x:t>8ADUWNFPVRG556731</x:t>
   </x:si>
   <x:si>
-    <x:t>402</x:t>
+    <x:t>406</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600495409</x:t>
@@ -5138,7 +5192,7 @@
     <x:t>8ADUWNFPVRG558137</x:t>
   </x:si>
   <x:si>
-    <x:t>403</x:t>
+    <x:t>407</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600495417</x:t>
@@ -5150,7 +5204,7 @@
     <x:t>8ADUWNFPVRG553733</x:t>
   </x:si>
   <x:si>
-    <x:t>404</x:t>
+    <x:t>408</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600495425</x:t>
@@ -5162,7 +5216,7 @@
     <x:t>8ADUWNFPVRG553745</x:t>
   </x:si>
   <x:si>
-    <x:t>405</x:t>
+    <x:t>409</x:t>
   </x:si>
   <x:si>
     <x:t>00170202339600495433</x:t>
@@ -5174,7 +5228,7 @@
     <x:t>8ADUWNFPARG555964</x:t>
   </x:si>
   <x:si>
-    <x:t>406</x:t>
+    <x:t>410</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600495441</x:t>
@@ -5186,7 +5240,7 @@
     <x:t>8ADUWNFPARG556884</x:t>
   </x:si>
   <x:si>
-    <x:t>407</x:t>
+    <x:t>411</x:t>
   </x:si>
   <x:si>
     <x:t>00170202359600495451</x:t>
@@ -5198,7 +5252,7 @@
     <x:t>8ADUWNFPARG556898</x:t>
   </x:si>
   <x:si>
-    <x:t>408</x:t>
+    <x:t>412</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600495468</x:t>
@@ -5213,7 +5267,7 @@
     <x:t>11.538.422,83</x:t>
   </x:si>
   <x:si>
-    <x:t>409</x:t>
+    <x:t>413</x:t>
   </x:si>
   <x:si>
     <x:t>00170202329600495476</x:t>
@@ -5225,7 +5279,7 @@
     <x:t>8ADUWNFPVRG557534</x:t>
   </x:si>
   <x:si>
-    <x:t>410</x:t>
+    <x:t>414</x:t>
   </x:si>
   <x:si>
     <x:t>00170202369600495484</x:t>
@@ -5237,7 +5291,7 @@
     <x:t>8ADUWNFPVRG556307</x:t>
   </x:si>
   <x:si>
-    <x:t>411</x:t>
+    <x:t>415</x:t>
   </x:si>
   <x:si>
     <x:t>00170202399600495492</x:t>
@@ -5604,7 +5658,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="118.421562" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="119.85125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
     <x:row r="3" spans="1:14">
       <x:c r="A3" s="0" t="s">
@@ -17710,174 +17764,162 @@
         <x:v>1344</x:v>
       </x:c>
       <x:c r="G321" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I321" s="0" t="s">
         <x:v>1345</x:v>
       </x:c>
-      <x:c r="H321" s="0" t="s">
+      <x:c r="J321" s="0" t="s">
+        <x:v>1345</x:v>
+      </x:c>
+      <x:c r="K321" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L321" s="0" t="s">
         <x:v>1346</x:v>
       </x:c>
-      <x:c r="I321" s="0" t="s">
-        <x:v>771</x:v>
-      </x:c>
-      <x:c r="J321" s="0" t="s">
-        <x:v>771</x:v>
-      </x:c>
-      <x:c r="K321" s="0" t="s">
-        <x:v>749</x:v>
-      </x:c>
-      <x:c r="L321" s="0" t="s">
+      <x:c r="M321" s="0" t="s">
         <x:v>1347</x:v>
       </x:c>
-      <x:c r="M321" s="0" t="s">
-        <x:v>1348</x:v>
-      </x:c>
       <x:c r="N321" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:14">
       <x:c r="A322" s="0" t="s">
+        <x:v>1348</x:v>
+      </x:c>
+      <x:c r="C322" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D322" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E322" s="0" t="s">
+        <x:v>1349</x:v>
+      </x:c>
+      <x:c r="F322" s="0" t="s">
         <x:v>1350</x:v>
       </x:c>
-      <x:c r="C322" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D322" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E322" s="0" t="s">
+      <x:c r="G322" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I322" s="0" t="s">
         <x:v>1351</x:v>
       </x:c>
-      <x:c r="F322" s="0" t="s">
-        <x:v>1352</x:v>
-      </x:c>
-      <x:c r="G322" s="0" t="s">
-        <x:v>1353</x:v>
-      </x:c>
-      <x:c r="H322" s="0" t="s">
-        <x:v>1354</x:v>
-      </x:c>
-      <x:c r="I322" s="0" t="s">
-        <x:v>771</x:v>
-      </x:c>
       <x:c r="J322" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="K322" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L322" s="0" t="s">
+        <x:v>1346</x:v>
+      </x:c>
+      <x:c r="M322" s="0" t="s">
         <x:v>1347</x:v>
       </x:c>
-      <x:c r="M322" s="0" t="s">
-        <x:v>1348</x:v>
-      </x:c>
       <x:c r="N322" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:14">
       <x:c r="A323" s="0" t="s">
+        <x:v>1352</x:v>
+      </x:c>
+      <x:c r="C323" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D323" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E323" s="0" t="s">
+        <x:v>1353</x:v>
+      </x:c>
+      <x:c r="F323" s="0" t="s">
+        <x:v>1354</x:v>
+      </x:c>
+      <x:c r="G323" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I323" s="0" t="s">
         <x:v>1355</x:v>
       </x:c>
-      <x:c r="C323" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D323" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E323" s="0" t="s">
-        <x:v>1356</x:v>
-      </x:c>
-      <x:c r="F323" s="0" t="s">
-        <x:v>1357</x:v>
-      </x:c>
-      <x:c r="G323" s="0" t="s">
-        <x:v>1358</x:v>
-      </x:c>
-      <x:c r="H323" s="0" t="s">
-        <x:v>1354</x:v>
-      </x:c>
-      <x:c r="I323" s="0" t="s">
-        <x:v>771</x:v>
-      </x:c>
       <x:c r="J323" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1355</x:v>
       </x:c>
       <x:c r="K323" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L323" s="0" t="s">
+        <x:v>1346</x:v>
+      </x:c>
+      <x:c r="M323" s="0" t="s">
         <x:v>1347</x:v>
       </x:c>
-      <x:c r="M323" s="0" t="s">
-        <x:v>1348</x:v>
-      </x:c>
       <x:c r="N323" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:14">
       <x:c r="A324" s="0" t="s">
+        <x:v>1356</x:v>
+      </x:c>
+      <x:c r="C324" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D324" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E324" s="0" t="s">
+        <x:v>1357</x:v>
+      </x:c>
+      <x:c r="F324" s="0" t="s">
+        <x:v>1358</x:v>
+      </x:c>
+      <x:c r="G324" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I324" s="0" t="s">
         <x:v>1359</x:v>
       </x:c>
-      <x:c r="C324" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D324" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E324" s="0" t="s">
-        <x:v>1360</x:v>
-      </x:c>
-      <x:c r="F324" s="0" t="s">
-        <x:v>1361</x:v>
-      </x:c>
-      <x:c r="G324" s="0" t="s">
-        <x:v>1362</x:v>
-      </x:c>
-      <x:c r="H324" s="0" t="s">
-        <x:v>1354</x:v>
-      </x:c>
-      <x:c r="I324" s="0" t="s">
-        <x:v>771</x:v>
-      </x:c>
       <x:c r="J324" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="K324" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L324" s="0" t="s">
+        <x:v>1346</x:v>
+      </x:c>
+      <x:c r="M324" s="0" t="s">
         <x:v>1347</x:v>
       </x:c>
-      <x:c r="M324" s="0" t="s">
-        <x:v>1348</x:v>
-      </x:c>
       <x:c r="N324" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:14">
       <x:c r="A325" s="0" t="s">
+        <x:v>1360</x:v>
+      </x:c>
+      <x:c r="C325" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D325" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E325" s="0" t="s">
+        <x:v>1361</x:v>
+      </x:c>
+      <x:c r="F325" s="0" t="s">
+        <x:v>1362</x:v>
+      </x:c>
+      <x:c r="G325" s="0" t="s">
         <x:v>1363</x:v>
       </x:c>
-      <x:c r="C325" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D325" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E325" s="0" t="s">
+      <x:c r="H325" s="0" t="s">
         <x:v>1364</x:v>
-      </x:c>
-      <x:c r="F325" s="0" t="s">
-        <x:v>1365</x:v>
-      </x:c>
-      <x:c r="G325" s="0" t="s">
-        <x:v>1366</x:v>
-      </x:c>
-      <x:c r="H325" s="0" t="s">
-        <x:v>1354</x:v>
       </x:c>
       <x:c r="I325" s="0" t="s">
         <x:v>771</x:v>
@@ -17889,18 +17931,18 @@
         <x:v>749</x:v>
       </x:c>
       <x:c r="L325" s="0" t="s">
-        <x:v>1347</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M325" s="0" t="s">
-        <x:v>1348</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="N325" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:14">
       <x:c r="A326" s="0" t="s">
-        <x:v>1367</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="C326" s="0" t="s">
         <x:v>1</x:v>
@@ -17909,16 +17951,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E326" s="0" t="s">
-        <x:v>1368</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="F326" s="0" t="s">
-        <x:v>1369</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="G326" s="0" t="s">
-        <x:v>1370</x:v>
+        <x:v>1371</x:v>
       </x:c>
       <x:c r="H326" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I326" s="0" t="s">
         <x:v>771</x:v>
@@ -17927,39 +17969,39 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K326" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="L326" s="0" t="s">
-        <x:v>1347</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M326" s="0" t="s">
-        <x:v>1371</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="N326" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:14">
       <x:c r="A327" s="0" t="s">
+        <x:v>1373</x:v>
+      </x:c>
+      <x:c r="C327" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D327" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E327" s="0" t="s">
+        <x:v>1374</x:v>
+      </x:c>
+      <x:c r="F327" s="0" t="s">
+        <x:v>1375</x:v>
+      </x:c>
+      <x:c r="G327" s="0" t="s">
+        <x:v>1376</x:v>
+      </x:c>
+      <x:c r="H327" s="0" t="s">
         <x:v>1372</x:v>
-      </x:c>
-      <x:c r="C327" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D327" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E327" s="0" t="s">
-        <x:v>1373</x:v>
-      </x:c>
-      <x:c r="F327" s="0" t="s">
-        <x:v>1374</x:v>
-      </x:c>
-      <x:c r="G327" s="0" t="s">
-        <x:v>1375</x:v>
-      </x:c>
-      <x:c r="H327" s="0" t="s">
-        <x:v>1354</x:v>
       </x:c>
       <x:c r="I327" s="0" t="s">
         <x:v>771</x:v>
@@ -17968,21 +18010,21 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K327" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="L327" s="0" t="s">
-        <x:v>1347</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M327" s="0" t="s">
-        <x:v>1371</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="N327" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:14">
       <x:c r="A328" s="0" t="s">
-        <x:v>1376</x:v>
+        <x:v>1377</x:v>
       </x:c>
       <x:c r="C328" s="0" t="s">
         <x:v>1</x:v>
@@ -17991,16 +18033,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E328" s="0" t="s">
-        <x:v>1377</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="F328" s="0" t="s">
-        <x:v>1378</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="G328" s="0" t="s">
-        <x:v>1379</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="H328" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I328" s="0" t="s">
         <x:v>771</x:v>
@@ -18009,21 +18051,21 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K328" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="L328" s="0" t="s">
-        <x:v>1347</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M328" s="0" t="s">
-        <x:v>1371</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="N328" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:14">
       <x:c r="A329" s="0" t="s">
-        <x:v>1380</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="C329" s="0" t="s">
         <x:v>1</x:v>
@@ -18032,16 +18074,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E329" s="0" t="s">
-        <x:v>1381</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="F329" s="0" t="s">
-        <x:v>1382</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="G329" s="0" t="s">
-        <x:v>1383</x:v>
+        <x:v>1384</x:v>
       </x:c>
       <x:c r="H329" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I329" s="0" t="s">
         <x:v>771</x:v>
@@ -18050,16 +18092,16 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K329" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="L329" s="0" t="s">
-        <x:v>1347</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M329" s="0" t="s">
-        <x:v>1371</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="N329" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:14">
@@ -18082,7 +18124,7 @@
         <x:v>1388</x:v>
       </x:c>
       <x:c r="H330" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I330" s="0" t="s">
         <x:v>771</x:v>
@@ -18094,156 +18136,156 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="L330" s="0" t="s">
-        <x:v>1347</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M330" s="0" t="s">
-        <x:v>1371</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="N330" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:14">
       <x:c r="A331" s="0" t="s">
+        <x:v>1390</x:v>
+      </x:c>
+      <x:c r="C331" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D331" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E331" s="0" t="s">
+        <x:v>1391</x:v>
+      </x:c>
+      <x:c r="F331" s="0" t="s">
+        <x:v>1392</x:v>
+      </x:c>
+      <x:c r="G331" s="0" t="s">
+        <x:v>1393</x:v>
+      </x:c>
+      <x:c r="H331" s="0" t="s">
+        <x:v>1372</x:v>
+      </x:c>
+      <x:c r="I331" s="0" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="J331" s="0" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="K331" s="0" t="s">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="L331" s="0" t="s">
+        <x:v>1365</x:v>
+      </x:c>
+      <x:c r="M331" s="0" t="s">
         <x:v>1389</x:v>
       </x:c>
-      <x:c r="C331" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D331" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E331" s="0" t="s">
-        <x:v>1390</x:v>
-      </x:c>
-      <x:c r="F331" s="0" t="s">
-        <x:v>1391</x:v>
-      </x:c>
-      <x:c r="G331" s="0" t="s">
-        <x:v>1392</x:v>
-      </x:c>
-      <x:c r="H331" s="0" t="s">
-        <x:v>1393</x:v>
-      </x:c>
-      <x:c r="I331" s="0" t="s">
-        <x:v>1394</x:v>
-      </x:c>
-      <x:c r="J331" s="0" t="s">
-        <x:v>1394</x:v>
-      </x:c>
-      <x:c r="K331" s="0" t="s">
-        <x:v>772</x:v>
-      </x:c>
-      <x:c r="L331" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="M331" s="0" t="s">
-        <x:v>1395</x:v>
-      </x:c>
       <x:c r="N331" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:14">
       <x:c r="A332" s="0" t="s">
+        <x:v>1394</x:v>
+      </x:c>
+      <x:c r="C332" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D332" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E332" s="0" t="s">
+        <x:v>1395</x:v>
+      </x:c>
+      <x:c r="F332" s="0" t="s">
         <x:v>1396</x:v>
       </x:c>
-      <x:c r="C332" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D332" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E332" s="0" t="s">
+      <x:c r="G332" s="0" t="s">
         <x:v>1397</x:v>
       </x:c>
-      <x:c r="F332" s="0" t="s">
-        <x:v>1398</x:v>
-      </x:c>
-      <x:c r="G332" s="0" t="s">
-        <x:v>1399</x:v>
-      </x:c>
       <x:c r="H332" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I332" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J332" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K332" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="L332" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M332" s="0" t="s">
-        <x:v>1395</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="N332" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:14">
       <x:c r="A333" s="0" t="s">
+        <x:v>1398</x:v>
+      </x:c>
+      <x:c r="C333" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D333" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E333" s="0" t="s">
+        <x:v>1399</x:v>
+      </x:c>
+      <x:c r="F333" s="0" t="s">
         <x:v>1400</x:v>
       </x:c>
-      <x:c r="C333" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D333" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E333" s="0" t="s">
+      <x:c r="G333" s="0" t="s">
         <x:v>1401</x:v>
       </x:c>
-      <x:c r="F333" s="0" t="s">
+      <x:c r="H333" s="0" t="s">
         <x:v>1402</x:v>
       </x:c>
-      <x:c r="G333" s="0" t="s">
-        <x:v>1403</x:v>
-      </x:c>
-      <x:c r="H333" s="0" t="s">
-        <x:v>1393</x:v>
-      </x:c>
       <x:c r="I333" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J333" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K333" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="L333" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M333" s="0" t="s">
-        <x:v>1395</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="N333" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:14">
       <x:c r="A334" s="0" t="s">
+        <x:v>1403</x:v>
+      </x:c>
+      <x:c r="C334" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D334" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E334" s="0" t="s">
         <x:v>1404</x:v>
       </x:c>
-      <x:c r="C334" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D334" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E334" s="0" t="s">
+      <x:c r="F334" s="0" t="s">
         <x:v>1405</x:v>
       </x:c>
-      <x:c r="F334" s="0" t="s">
+      <x:c r="G334" s="0" t="s">
         <x:v>1406</x:v>
-      </x:c>
-      <x:c r="G334" s="0" t="s">
-        <x:v>1407</x:v>
       </x:c>
       <x:c r="H334" s="0" t="s">
         <x:v>770</x:v>
@@ -18255,45 +18297,45 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K334" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="L334" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="M334" s="0" t="s">
-        <x:v>1395</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="N334" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:14">
       <x:c r="A335" s="0" t="s">
+        <x:v>1407</x:v>
+      </x:c>
+      <x:c r="C335" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D335" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E335" s="0" t="s">
         <x:v>1408</x:v>
       </x:c>
-      <x:c r="C335" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D335" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E335" s="0" t="s">
+      <x:c r="F335" s="0" t="s">
         <x:v>1409</x:v>
       </x:c>
-      <x:c r="F335" s="0" t="s">
+      <x:c r="G335" s="0" t="s">
         <x:v>1410</x:v>
       </x:c>
-      <x:c r="G335" s="0" t="s">
+      <x:c r="H335" s="0" t="s">
         <x:v>1411</x:v>
       </x:c>
-      <x:c r="H335" s="0" t="s">
-        <x:v>770</x:v>
-      </x:c>
       <x:c r="I335" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J335" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K335" s="0" t="s">
         <x:v>772</x:v>
@@ -18302,39 +18344,39 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="M335" s="0" t="s">
-        <x:v>1395</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="N335" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:14">
       <x:c r="A336" s="0" t="s">
+        <x:v>1414</x:v>
+      </x:c>
+      <x:c r="C336" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D336" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E336" s="0" t="s">
+        <x:v>1415</x:v>
+      </x:c>
+      <x:c r="F336" s="0" t="s">
+        <x:v>1416</x:v>
+      </x:c>
+      <x:c r="G336" s="0" t="s">
+        <x:v>1417</x:v>
+      </x:c>
+      <x:c r="H336" s="0" t="s">
+        <x:v>1411</x:v>
+      </x:c>
+      <x:c r="I336" s="0" t="s">
         <x:v>1412</x:v>
       </x:c>
-      <x:c r="C336" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D336" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E336" s="0" t="s">
-        <x:v>1413</x:v>
-      </x:c>
-      <x:c r="F336" s="0" t="s">
-        <x:v>1414</x:v>
-      </x:c>
-      <x:c r="G336" s="0" t="s">
-        <x:v>1415</x:v>
-      </x:c>
-      <x:c r="H336" s="0" t="s">
-        <x:v>1393</x:v>
-      </x:c>
-      <x:c r="I336" s="0" t="s">
-        <x:v>1394</x:v>
-      </x:c>
       <x:c r="J336" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K336" s="0" t="s">
         <x:v>772</x:v>
@@ -18343,15 +18385,15 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="M336" s="0" t="s">
-        <x:v>1395</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="N336" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:14">
       <x:c r="A337" s="0" t="s">
-        <x:v>1416</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="C337" s="0" t="s">
         <x:v>1</x:v>
@@ -18360,34 +18402,34 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E337" s="0" t="s">
-        <x:v>1417</x:v>
+        <x:v>1419</x:v>
       </x:c>
       <x:c r="F337" s="0" t="s">
-        <x:v>1418</x:v>
+        <x:v>1420</x:v>
       </x:c>
       <x:c r="G337" s="0" t="s">
-        <x:v>1419</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="H337" s="0" t="s">
-        <x:v>1346</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I337" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J337" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K337" s="0" t="s">
-        <x:v>1420</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="L337" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M337" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="N337" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:14">
@@ -18410,7 +18452,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="H338" s="0" t="s">
-        <x:v>1346</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I338" s="0" t="s">
         <x:v>771</x:v>
@@ -18419,16 +18461,16 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K338" s="0" t="s">
-        <x:v>1420</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="L338" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M338" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="N338" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:14">
@@ -18460,16 +18502,16 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K339" s="0" t="s">
-        <x:v>1420</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="L339" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M339" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="N339" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:14">
@@ -18492,25 +18534,25 @@
         <x:v>1433</x:v>
       </x:c>
       <x:c r="H340" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I340" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J340" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K340" s="0" t="s">
-        <x:v>1420</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="L340" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M340" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="N340" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:14">
@@ -18533,7 +18575,7 @@
         <x:v>1437</x:v>
       </x:c>
       <x:c r="H341" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="I341" s="0" t="s">
         <x:v>771</x:v>
@@ -18542,62 +18584,62 @@
         <x:v>771</x:v>
       </x:c>
       <x:c r="K341" s="0" t="s">
-        <x:v>1420</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="L341" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="M341" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N341" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:14">
       <x:c r="A342" s="0" t="s">
+        <x:v>1440</x:v>
+      </x:c>
+      <x:c r="C342" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D342" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E342" s="0" t="s">
+        <x:v>1441</x:v>
+      </x:c>
+      <x:c r="F342" s="0" t="s">
+        <x:v>1442</x:v>
+      </x:c>
+      <x:c r="G342" s="0" t="s">
+        <x:v>1443</x:v>
+      </x:c>
+      <x:c r="H342" s="0" t="s">
+        <x:v>1364</x:v>
+      </x:c>
+      <x:c r="I342" s="0" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="J342" s="0" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="K342" s="0" t="s">
         <x:v>1438</x:v>
       </x:c>
-      <x:c r="C342" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D342" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E342" s="0" t="s">
+      <x:c r="L342" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="M342" s="0" t="s">
         <x:v>1439</x:v>
       </x:c>
-      <x:c r="F342" s="0" t="s">
-        <x:v>1440</x:v>
-      </x:c>
-      <x:c r="G342" s="0" t="s">
-        <x:v>1441</x:v>
-      </x:c>
-      <x:c r="H342" s="0" t="s">
-        <x:v>1393</x:v>
-      </x:c>
-      <x:c r="I342" s="0" t="s">
-        <x:v>1394</x:v>
-      </x:c>
-      <x:c r="J342" s="0" t="s">
-        <x:v>1394</x:v>
-      </x:c>
-      <x:c r="K342" s="0" t="s">
-        <x:v>821</x:v>
-      </x:c>
-      <x:c r="L342" s="0" t="s">
-        <x:v>1442</x:v>
-      </x:c>
-      <x:c r="M342" s="0" t="s">
-        <x:v>1421</x:v>
-      </x:c>
       <x:c r="N342" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:14">
       <x:c r="A343" s="0" t="s">
-        <x:v>1443</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="C343" s="0" t="s">
         <x:v>1</x:v>
@@ -18606,39 +18648,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E343" s="0" t="s">
-        <x:v>1444</x:v>
+        <x:v>1445</x:v>
       </x:c>
       <x:c r="F343" s="0" t="s">
-        <x:v>1445</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="G343" s="0" t="s">
-        <x:v>1446</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="H343" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I343" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J343" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K343" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="L343" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="M343" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N343" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:14">
       <x:c r="A344" s="0" t="s">
-        <x:v>1447</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="C344" s="0" t="s">
         <x:v>1</x:v>
@@ -18647,39 +18689,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E344" s="0" t="s">
-        <x:v>1448</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="F344" s="0" t="s">
-        <x:v>1449</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="G344" s="0" t="s">
-        <x:v>1450</x:v>
+        <x:v>1451</x:v>
       </x:c>
       <x:c r="H344" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I344" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J344" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K344" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="L344" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="M344" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N344" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:14">
       <x:c r="A345" s="0" t="s">
-        <x:v>1451</x:v>
+        <x:v>1452</x:v>
       </x:c>
       <x:c r="C345" s="0" t="s">
         <x:v>1</x:v>
@@ -18688,39 +18730,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E345" s="0" t="s">
-        <x:v>1452</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="F345" s="0" t="s">
-        <x:v>1453</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="G345" s="0" t="s">
-        <x:v>1454</x:v>
+        <x:v>1455</x:v>
       </x:c>
       <x:c r="H345" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I345" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J345" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K345" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>1438</x:v>
       </x:c>
       <x:c r="L345" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="M345" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N345" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:14">
       <x:c r="A346" s="0" t="s">
-        <x:v>1455</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="C346" s="0" t="s">
         <x:v>1</x:v>
@@ -18729,39 +18771,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E346" s="0" t="s">
-        <x:v>1456</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="F346" s="0" t="s">
-        <x:v>1457</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="G346" s="0" t="s">
-        <x:v>1458</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="H346" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I346" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J346" s="0" t="s">
-        <x:v>1394</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K346" s="0" t="s">
         <x:v>821</x:v>
       </x:c>
       <x:c r="L346" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M346" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N346" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:14">
       <x:c r="A347" s="0" t="s">
-        <x:v>1459</x:v>
+        <x:v>1461</x:v>
       </x:c>
       <x:c r="C347" s="0" t="s">
         <x:v>1</x:v>
@@ -18770,39 +18812,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E347" s="0" t="s">
-        <x:v>1460</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="F347" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="G347" s="0" t="s">
-        <x:v>1461</x:v>
+        <x:v>1464</x:v>
       </x:c>
       <x:c r="H347" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I347" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J347" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K347" s="0" t="s">
         <x:v>821</x:v>
       </x:c>
       <x:c r="L347" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M347" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N347" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:14">
       <x:c r="A348" s="0" t="s">
-        <x:v>1462</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="C348" s="0" t="s">
         <x:v>1</x:v>
@@ -18811,39 +18853,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E348" s="0" t="s">
-        <x:v>1463</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="F348" s="0" t="s">
-        <x:v>1464</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="G348" s="0" t="s">
-        <x:v>1465</x:v>
+        <x:v>1468</x:v>
       </x:c>
       <x:c r="H348" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I348" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J348" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K348" s="0" t="s">
         <x:v>821</x:v>
       </x:c>
       <x:c r="L348" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M348" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N348" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:14">
       <x:c r="A349" s="0" t="s">
-        <x:v>1466</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="C349" s="0" t="s">
         <x:v>1</x:v>
@@ -18852,39 +18894,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E349" s="0" t="s">
-        <x:v>1467</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="F349" s="0" t="s">
-        <x:v>1468</x:v>
+        <x:v>1471</x:v>
       </x:c>
       <x:c r="G349" s="0" t="s">
-        <x:v>1469</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="H349" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I349" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J349" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K349" s="0" t="s">
         <x:v>821</x:v>
       </x:c>
       <x:c r="L349" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M349" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N349" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:14">
       <x:c r="A350" s="0" t="s">
-        <x:v>1470</x:v>
+        <x:v>1473</x:v>
       </x:c>
       <x:c r="C350" s="0" t="s">
         <x:v>1</x:v>
@@ -18893,39 +18935,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E350" s="0" t="s">
-        <x:v>1471</x:v>
+        <x:v>1474</x:v>
       </x:c>
       <x:c r="F350" s="0" t="s">
-        <x:v>1472</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="G350" s="0" t="s">
-        <x:v>1473</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="H350" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I350" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="J350" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>1412</x:v>
       </x:c>
       <x:c r="K350" s="0" t="s">
         <x:v>821</x:v>
       </x:c>
       <x:c r="L350" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M350" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N350" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="351" spans="1:14">
       <x:c r="A351" s="0" t="s">
-        <x:v>1474</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="C351" s="0" t="s">
         <x:v>1</x:v>
@@ -18934,13 +18976,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E351" s="0" t="s">
-        <x:v>1475</x:v>
+        <x:v>1478</x:v>
       </x:c>
       <x:c r="F351" s="0" t="s">
-        <x:v>1476</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="G351" s="0" t="s">
-        <x:v>1477</x:v>
+        <x:v>1479</x:v>
       </x:c>
       <x:c r="H351" s="0" t="s">
         <x:v>770</x:v>
@@ -18955,18 +18997,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L351" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M351" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N351" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:14">
       <x:c r="A352" s="0" t="s">
-        <x:v>1478</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="C352" s="0" t="s">
         <x:v>1</x:v>
@@ -18975,16 +19017,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E352" s="0" t="s">
-        <x:v>1479</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="F352" s="0" t="s">
-        <x:v>1480</x:v>
+        <x:v>1482</x:v>
       </x:c>
       <x:c r="G352" s="0" t="s">
-        <x:v>1481</x:v>
+        <x:v>1483</x:v>
       </x:c>
       <x:c r="H352" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I352" s="0" t="s">
         <x:v>771</x:v>
@@ -18996,18 +19038,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L352" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M352" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N352" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:14">
       <x:c r="A353" s="0" t="s">
-        <x:v>1482</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="C353" s="0" t="s">
         <x:v>1</x:v>
@@ -19016,13 +19058,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E353" s="0" t="s">
-        <x:v>1483</x:v>
+        <x:v>1485</x:v>
       </x:c>
       <x:c r="F353" s="0" t="s">
-        <x:v>1484</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="G353" s="0" t="s">
-        <x:v>1485</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="H353" s="0" t="s">
         <x:v>770</x:v>
@@ -19037,18 +19079,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L353" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M353" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N353" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:14">
       <x:c r="A354" s="0" t="s">
-        <x:v>1486</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="C354" s="0" t="s">
         <x:v>1</x:v>
@@ -19057,13 +19099,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E354" s="0" t="s">
-        <x:v>1487</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="F354" s="0" t="s">
-        <x:v>1488</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="G354" s="0" t="s">
-        <x:v>1489</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="H354" s="0" t="s">
         <x:v>770</x:v>
@@ -19078,18 +19120,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L354" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M354" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N354" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:14">
       <x:c r="A355" s="0" t="s">
-        <x:v>1490</x:v>
+        <x:v>1492</x:v>
       </x:c>
       <x:c r="C355" s="0" t="s">
         <x:v>1</x:v>
@@ -19098,16 +19140,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E355" s="0" t="s">
-        <x:v>1491</x:v>
+        <x:v>1493</x:v>
       </x:c>
       <x:c r="F355" s="0" t="s">
-        <x:v>1492</x:v>
+        <x:v>1494</x:v>
       </x:c>
       <x:c r="G355" s="0" t="s">
-        <x:v>1493</x:v>
+        <x:v>1495</x:v>
       </x:c>
       <x:c r="H355" s="0" t="s">
-        <x:v>1346</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I355" s="0" t="s">
         <x:v>771</x:v>
@@ -19119,18 +19161,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L355" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M355" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N355" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="356" spans="1:14">
       <x:c r="A356" s="0" t="s">
-        <x:v>1494</x:v>
+        <x:v>1496</x:v>
       </x:c>
       <x:c r="C356" s="0" t="s">
         <x:v>1</x:v>
@@ -19139,16 +19181,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E356" s="0" t="s">
-        <x:v>1495</x:v>
+        <x:v>1497</x:v>
       </x:c>
       <x:c r="F356" s="0" t="s">
-        <x:v>1496</x:v>
+        <x:v>1498</x:v>
       </x:c>
       <x:c r="G356" s="0" t="s">
-        <x:v>1497</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="H356" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="I356" s="0" t="s">
         <x:v>771</x:v>
@@ -19160,18 +19202,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L356" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M356" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N356" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="357" spans="1:14">
       <x:c r="A357" s="0" t="s">
-        <x:v>1498</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="C357" s="0" t="s">
         <x:v>1</x:v>
@@ -19180,16 +19222,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E357" s="0" t="s">
-        <x:v>1499</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="F357" s="0" t="s">
-        <x:v>1500</x:v>
+        <x:v>1502</x:v>
       </x:c>
       <x:c r="G357" s="0" t="s">
-        <x:v>1501</x:v>
+        <x:v>1503</x:v>
       </x:c>
       <x:c r="H357" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I357" s="0" t="s">
         <x:v>771</x:v>
@@ -19201,18 +19243,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L357" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M357" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N357" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:14">
       <x:c r="A358" s="0" t="s">
-        <x:v>1502</x:v>
+        <x:v>1504</x:v>
       </x:c>
       <x:c r="C358" s="0" t="s">
         <x:v>1</x:v>
@@ -19221,13 +19263,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E358" s="0" t="s">
-        <x:v>1503</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="F358" s="0" t="s">
-        <x:v>1504</x:v>
+        <x:v>1506</x:v>
       </x:c>
       <x:c r="G358" s="0" t="s">
-        <x:v>1505</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="H358" s="0" t="s">
         <x:v>770</x:v>
@@ -19242,18 +19284,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L358" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M358" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N358" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:14">
       <x:c r="A359" s="0" t="s">
-        <x:v>1506</x:v>
+        <x:v>1508</x:v>
       </x:c>
       <x:c r="C359" s="0" t="s">
         <x:v>1</x:v>
@@ -19262,16 +19304,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E359" s="0" t="s">
-        <x:v>1507</x:v>
+        <x:v>1509</x:v>
       </x:c>
       <x:c r="F359" s="0" t="s">
-        <x:v>1508</x:v>
+        <x:v>1510</x:v>
       </x:c>
       <x:c r="G359" s="0" t="s">
-        <x:v>1509</x:v>
+        <x:v>1511</x:v>
       </x:c>
       <x:c r="H359" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="I359" s="0" t="s">
         <x:v>771</x:v>
@@ -19283,18 +19325,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L359" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M359" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N359" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="360" spans="1:14">
       <x:c r="A360" s="0" t="s">
-        <x:v>1510</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="C360" s="0" t="s">
         <x:v>1</x:v>
@@ -19303,13 +19345,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E360" s="0" t="s">
-        <x:v>1511</x:v>
+        <x:v>1513</x:v>
       </x:c>
       <x:c r="F360" s="0" t="s">
-        <x:v>1512</x:v>
+        <x:v>1514</x:v>
       </x:c>
       <x:c r="G360" s="0" t="s">
-        <x:v>1513</x:v>
+        <x:v>1515</x:v>
       </x:c>
       <x:c r="H360" s="0" t="s">
         <x:v>770</x:v>
@@ -19324,18 +19366,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L360" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M360" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N360" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:14">
       <x:c r="A361" s="0" t="s">
-        <x:v>1514</x:v>
+        <x:v>1516</x:v>
       </x:c>
       <x:c r="C361" s="0" t="s">
         <x:v>1</x:v>
@@ -19344,16 +19386,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E361" s="0" t="s">
-        <x:v>1515</x:v>
+        <x:v>1517</x:v>
       </x:c>
       <x:c r="F361" s="0" t="s">
-        <x:v>1516</x:v>
+        <x:v>1518</x:v>
       </x:c>
       <x:c r="G361" s="0" t="s">
-        <x:v>1517</x:v>
+        <x:v>1519</x:v>
       </x:c>
       <x:c r="H361" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I361" s="0" t="s">
         <x:v>771</x:v>
@@ -19365,18 +19407,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L361" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M361" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N361" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="362" spans="1:14">
       <x:c r="A362" s="0" t="s">
-        <x:v>1518</x:v>
+        <x:v>1520</x:v>
       </x:c>
       <x:c r="C362" s="0" t="s">
         <x:v>1</x:v>
@@ -19385,16 +19427,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E362" s="0" t="s">
-        <x:v>1519</x:v>
+        <x:v>1521</x:v>
       </x:c>
       <x:c r="F362" s="0" t="s">
-        <x:v>1520</x:v>
+        <x:v>1522</x:v>
       </x:c>
       <x:c r="G362" s="0" t="s">
-        <x:v>1521</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="H362" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I362" s="0" t="s">
         <x:v>771</x:v>
@@ -19406,18 +19448,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L362" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M362" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N362" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="363" spans="1:14">
       <x:c r="A363" s="0" t="s">
-        <x:v>1522</x:v>
+        <x:v>1524</x:v>
       </x:c>
       <x:c r="C363" s="0" t="s">
         <x:v>1</x:v>
@@ -19426,16 +19468,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E363" s="0" t="s">
-        <x:v>1523</x:v>
+        <x:v>1525</x:v>
       </x:c>
       <x:c r="F363" s="0" t="s">
-        <x:v>1524</x:v>
+        <x:v>1526</x:v>
       </x:c>
       <x:c r="G363" s="0" t="s">
-        <x:v>1525</x:v>
+        <x:v>1527</x:v>
       </x:c>
       <x:c r="H363" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I363" s="0" t="s">
         <x:v>771</x:v>
@@ -19447,18 +19489,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L363" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M363" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N363" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="364" spans="1:14">
       <x:c r="A364" s="0" t="s">
-        <x:v>1526</x:v>
+        <x:v>1528</x:v>
       </x:c>
       <x:c r="C364" s="0" t="s">
         <x:v>1</x:v>
@@ -19467,16 +19509,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E364" s="0" t="s">
-        <x:v>1527</x:v>
+        <x:v>1529</x:v>
       </x:c>
       <x:c r="F364" s="0" t="s">
-        <x:v>1528</x:v>
+        <x:v>1530</x:v>
       </x:c>
       <x:c r="G364" s="0" t="s">
-        <x:v>1529</x:v>
+        <x:v>1531</x:v>
       </x:c>
       <x:c r="H364" s="0" t="s">
-        <x:v>1346</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I364" s="0" t="s">
         <x:v>771</x:v>
@@ -19488,18 +19530,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L364" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M364" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N364" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="365" spans="1:14">
       <x:c r="A365" s="0" t="s">
-        <x:v>1530</x:v>
+        <x:v>1532</x:v>
       </x:c>
       <x:c r="C365" s="0" t="s">
         <x:v>1</x:v>
@@ -19508,16 +19550,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E365" s="0" t="s">
-        <x:v>1531</x:v>
+        <x:v>1533</x:v>
       </x:c>
       <x:c r="F365" s="0" t="s">
-        <x:v>1532</x:v>
+        <x:v>1534</x:v>
       </x:c>
       <x:c r="G365" s="0" t="s">
-        <x:v>1533</x:v>
+        <x:v>1535</x:v>
       </x:c>
       <x:c r="H365" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="I365" s="0" t="s">
         <x:v>771</x:v>
@@ -19529,18 +19571,18 @@
         <x:v>821</x:v>
       </x:c>
       <x:c r="L365" s="0" t="s">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M365" s="0" t="s">
-        <x:v>1421</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N365" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="366" spans="1:14">
       <x:c r="A366" s="0" t="s">
-        <x:v>1534</x:v>
+        <x:v>1536</x:v>
       </x:c>
       <x:c r="C366" s="0" t="s">
         <x:v>1</x:v>
@@ -19549,244 +19591,244 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E366" s="0" t="s">
-        <x:v>1535</x:v>
+        <x:v>1537</x:v>
       </x:c>
       <x:c r="F366" s="0" t="s">
-        <x:v>1536</x:v>
+        <x:v>1538</x:v>
       </x:c>
       <x:c r="G366" s="0" t="s">
-        <x:v>1537</x:v>
+        <x:v>1539</x:v>
       </x:c>
       <x:c r="H366" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I366" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J366" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K366" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="L366" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M366" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N366" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="367" spans="1:14">
       <x:c r="A367" s="0" t="s">
+        <x:v>1540</x:v>
+      </x:c>
+      <x:c r="C367" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D367" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E367" s="0" t="s">
+        <x:v>1541</x:v>
+      </x:c>
+      <x:c r="F367" s="0" t="s">
+        <x:v>1542</x:v>
+      </x:c>
+      <x:c r="G367" s="0" t="s">
         <x:v>1543</x:v>
       </x:c>
-      <x:c r="C367" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D367" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E367" s="0" t="s">
-        <x:v>1544</x:v>
-      </x:c>
-      <x:c r="F367" s="0" t="s">
-        <x:v>1545</x:v>
-      </x:c>
-      <x:c r="G367" s="0" t="s">
-        <x:v>1546</x:v>
-      </x:c>
       <x:c r="H367" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="I367" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J367" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K367" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="L367" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M367" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N367" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="368" spans="1:14">
       <x:c r="A368" s="0" t="s">
+        <x:v>1544</x:v>
+      </x:c>
+      <x:c r="C368" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D368" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E368" s="0" t="s">
+        <x:v>1545</x:v>
+      </x:c>
+      <x:c r="F368" s="0" t="s">
+        <x:v>1546</x:v>
+      </x:c>
+      <x:c r="G368" s="0" t="s">
         <x:v>1547</x:v>
       </x:c>
-      <x:c r="C368" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D368" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E368" s="0" t="s">
-        <x:v>1548</x:v>
-      </x:c>
-      <x:c r="F368" s="0" t="s">
-        <x:v>1549</x:v>
-      </x:c>
-      <x:c r="G368" s="0" t="s">
-        <x:v>1550</x:v>
-      </x:c>
       <x:c r="H368" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="I368" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J368" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K368" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="L368" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M368" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N368" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="369" spans="1:14">
       <x:c r="A369" s="0" t="s">
+        <x:v>1548</x:v>
+      </x:c>
+      <x:c r="C369" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D369" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E369" s="0" t="s">
+        <x:v>1549</x:v>
+      </x:c>
+      <x:c r="F369" s="0" t="s">
+        <x:v>1550</x:v>
+      </x:c>
+      <x:c r="G369" s="0" t="s">
         <x:v>1551</x:v>
       </x:c>
-      <x:c r="C369" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D369" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E369" s="0" t="s">
-        <x:v>1552</x:v>
-      </x:c>
-      <x:c r="F369" s="0" t="s">
-        <x:v>1553</x:v>
-      </x:c>
-      <x:c r="G369" s="0" t="s">
-        <x:v>1554</x:v>
-      </x:c>
       <x:c r="H369" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I369" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="J369" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="K369" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="L369" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="M369" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="N369" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="370" spans="1:14">
       <x:c r="A370" s="0" t="s">
+        <x:v>1552</x:v>
+      </x:c>
+      <x:c r="C370" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D370" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E370" s="0" t="s">
+        <x:v>1553</x:v>
+      </x:c>
+      <x:c r="F370" s="0" t="s">
+        <x:v>1554</x:v>
+      </x:c>
+      <x:c r="G370" s="0" t="s">
         <x:v>1555</x:v>
       </x:c>
-      <x:c r="C370" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D370" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E370" s="0" t="s">
+      <x:c r="H370" s="0" t="s">
         <x:v>1556</x:v>
       </x:c>
-      <x:c r="F370" s="0" t="s">
+      <x:c r="I370" s="0" t="s">
         <x:v>1557</x:v>
       </x:c>
-      <x:c r="G370" s="0" t="s">
+      <x:c r="J370" s="0" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+      <x:c r="K370" s="0" t="s">
         <x:v>1558</x:v>
       </x:c>
-      <x:c r="H370" s="0" t="s">
-        <x:v>1538</x:v>
-      </x:c>
-      <x:c r="I370" s="0" t="s">
-        <x:v>1539</x:v>
-      </x:c>
-      <x:c r="J370" s="0" t="s">
-        <x:v>1539</x:v>
-      </x:c>
-      <x:c r="K370" s="0" t="s">
-        <x:v>1540</x:v>
-      </x:c>
       <x:c r="L370" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M370" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N370" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="371" spans="1:14">
       <x:c r="A371" s="0" t="s">
+        <x:v>1561</x:v>
+      </x:c>
+      <x:c r="C371" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D371" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E371" s="0" t="s">
+        <x:v>1562</x:v>
+      </x:c>
+      <x:c r="F371" s="0" t="s">
+        <x:v>1563</x:v>
+      </x:c>
+      <x:c r="G371" s="0" t="s">
+        <x:v>1564</x:v>
+      </x:c>
+      <x:c r="H371" s="0" t="s">
+        <x:v>1556</x:v>
+      </x:c>
+      <x:c r="I371" s="0" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+      <x:c r="J371" s="0" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+      <x:c r="K371" s="0" t="s">
+        <x:v>1558</x:v>
+      </x:c>
+      <x:c r="L371" s="0" t="s">
         <x:v>1559</x:v>
       </x:c>
-      <x:c r="C371" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D371" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E371" s="0" t="s">
+      <x:c r="M371" s="0" t="s">
         <x:v>1560</x:v>
       </x:c>
-      <x:c r="F371" s="0" t="s">
-        <x:v>1561</x:v>
-      </x:c>
-      <x:c r="G371" s="0" t="s">
-        <x:v>1562</x:v>
-      </x:c>
-      <x:c r="H371" s="0" t="s">
-        <x:v>1538</x:v>
-      </x:c>
-      <x:c r="I371" s="0" t="s">
-        <x:v>1539</x:v>
-      </x:c>
-      <x:c r="J371" s="0" t="s">
-        <x:v>1539</x:v>
-      </x:c>
-      <x:c r="K371" s="0" t="s">
-        <x:v>1540</x:v>
-      </x:c>
-      <x:c r="L371" s="0" t="s">
-        <x:v>1541</x:v>
-      </x:c>
-      <x:c r="M371" s="0" t="s">
-        <x:v>1542</x:v>
-      </x:c>
       <x:c r="N371" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="372" spans="1:14">
       <x:c r="A372" s="0" t="s">
-        <x:v>1563</x:v>
+        <x:v>1565</x:v>
       </x:c>
       <x:c r="C372" s="0" t="s">
         <x:v>1</x:v>
@@ -19795,39 +19837,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E372" s="0" t="s">
-        <x:v>1564</x:v>
+        <x:v>1566</x:v>
       </x:c>
       <x:c r="F372" s="0" t="s">
-        <x:v>1565</x:v>
+        <x:v>1567</x:v>
       </x:c>
       <x:c r="G372" s="0" t="s">
-        <x:v>1566</x:v>
+        <x:v>1568</x:v>
       </x:c>
       <x:c r="H372" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I372" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J372" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K372" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L372" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M372" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N372" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="373" spans="1:14">
       <x:c r="A373" s="0" t="s">
-        <x:v>1567</x:v>
+        <x:v>1569</x:v>
       </x:c>
       <x:c r="C373" s="0" t="s">
         <x:v>1</x:v>
@@ -19836,39 +19878,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E373" s="0" t="s">
-        <x:v>1568</x:v>
+        <x:v>1570</x:v>
       </x:c>
       <x:c r="F373" s="0" t="s">
-        <x:v>1569</x:v>
+        <x:v>1571</x:v>
       </x:c>
       <x:c r="G373" s="0" t="s">
-        <x:v>1570</x:v>
+        <x:v>1572</x:v>
       </x:c>
       <x:c r="H373" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I373" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J373" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K373" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L373" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M373" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N373" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="374" spans="1:14">
       <x:c r="A374" s="0" t="s">
-        <x:v>1571</x:v>
+        <x:v>1573</x:v>
       </x:c>
       <x:c r="C374" s="0" t="s">
         <x:v>1</x:v>
@@ -19877,39 +19919,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E374" s="0" t="s">
-        <x:v>1572</x:v>
+        <x:v>1574</x:v>
       </x:c>
       <x:c r="F374" s="0" t="s">
-        <x:v>1573</x:v>
+        <x:v>1575</x:v>
       </x:c>
       <x:c r="G374" s="0" t="s">
-        <x:v>1574</x:v>
+        <x:v>1576</x:v>
       </x:c>
       <x:c r="H374" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I374" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J374" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K374" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L374" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M374" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N374" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="375" spans="1:14">
       <x:c r="A375" s="0" t="s">
-        <x:v>1575</x:v>
+        <x:v>1577</x:v>
       </x:c>
       <x:c r="C375" s="0" t="s">
         <x:v>1</x:v>
@@ -19918,39 +19960,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E375" s="0" t="s">
-        <x:v>1576</x:v>
+        <x:v>1578</x:v>
       </x:c>
       <x:c r="F375" s="0" t="s">
-        <x:v>1577</x:v>
+        <x:v>1579</x:v>
       </x:c>
       <x:c r="G375" s="0" t="s">
-        <x:v>1578</x:v>
+        <x:v>1580</x:v>
       </x:c>
       <x:c r="H375" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I375" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J375" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K375" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L375" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M375" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N375" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="376" spans="1:14">
       <x:c r="A376" s="0" t="s">
-        <x:v>1580</x:v>
+        <x:v>1581</x:v>
       </x:c>
       <x:c r="C376" s="0" t="s">
         <x:v>1</x:v>
@@ -19959,34 +20001,34 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E376" s="0" t="s">
-        <x:v>1581</x:v>
+        <x:v>1582</x:v>
       </x:c>
       <x:c r="F376" s="0" t="s">
-        <x:v>1582</x:v>
+        <x:v>1583</x:v>
       </x:c>
       <x:c r="G376" s="0" t="s">
-        <x:v>1583</x:v>
+        <x:v>1584</x:v>
       </x:c>
       <x:c r="H376" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I376" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J376" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K376" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L376" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M376" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N376" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="377" spans="1:14">
@@ -20009,25 +20051,25 @@
         <x:v>1588</x:v>
       </x:c>
       <x:c r="H377" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I377" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J377" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K377" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L377" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M377" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N377" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="378" spans="1:14">
@@ -20050,25 +20092,25 @@
         <x:v>1592</x:v>
       </x:c>
       <x:c r="H378" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I378" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J378" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K378" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L378" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M378" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N378" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="379" spans="1:14">
@@ -20091,30 +20133,30 @@
         <x:v>1596</x:v>
       </x:c>
       <x:c r="H379" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I379" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="J379" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="K379" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L379" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M379" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N379" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="380" spans="1:14">
       <x:c r="A380" s="0" t="s">
-        <x:v>1597</x:v>
+        <x:v>1598</x:v>
       </x:c>
       <x:c r="C380" s="0" t="s">
         <x:v>1</x:v>
@@ -20123,39 +20165,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E380" s="0" t="s">
-        <x:v>1598</x:v>
+        <x:v>1599</x:v>
       </x:c>
       <x:c r="F380" s="0" t="s">
-        <x:v>1599</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="G380" s="0" t="s">
-        <x:v>1600</x:v>
+        <x:v>1601</x:v>
       </x:c>
       <x:c r="H380" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I380" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="J380" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="K380" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L380" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M380" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N380" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="381" spans="1:14">
       <x:c r="A381" s="0" t="s">
-        <x:v>1602</x:v>
+        <x:v>1603</x:v>
       </x:c>
       <x:c r="C381" s="0" t="s">
         <x:v>1</x:v>
@@ -20164,39 +20206,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E381" s="0" t="s">
-        <x:v>1603</x:v>
+        <x:v>1604</x:v>
       </x:c>
       <x:c r="F381" s="0" t="s">
-        <x:v>1604</x:v>
+        <x:v>1605</x:v>
       </x:c>
       <x:c r="G381" s="0" t="s">
-        <x:v>1605</x:v>
+        <x:v>1606</x:v>
       </x:c>
       <x:c r="H381" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I381" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J381" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K381" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L381" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M381" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N381" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="382" spans="1:14">
       <x:c r="A382" s="0" t="s">
-        <x:v>1606</x:v>
+        <x:v>1607</x:v>
       </x:c>
       <x:c r="C382" s="0" t="s">
         <x:v>1</x:v>
@@ -20205,39 +20247,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E382" s="0" t="s">
-        <x:v>1607</x:v>
+        <x:v>1608</x:v>
       </x:c>
       <x:c r="F382" s="0" t="s">
-        <x:v>1608</x:v>
+        <x:v>1609</x:v>
       </x:c>
       <x:c r="G382" s="0" t="s">
-        <x:v>1609</x:v>
+        <x:v>1610</x:v>
       </x:c>
       <x:c r="H382" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I382" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J382" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K382" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L382" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M382" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N382" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="383" spans="1:14">
       <x:c r="A383" s="0" t="s">
-        <x:v>1610</x:v>
+        <x:v>1611</x:v>
       </x:c>
       <x:c r="C383" s="0" t="s">
         <x:v>1</x:v>
@@ -20246,39 +20288,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E383" s="0" t="s">
-        <x:v>1611</x:v>
+        <x:v>1612</x:v>
       </x:c>
       <x:c r="F383" s="0" t="s">
-        <x:v>1612</x:v>
+        <x:v>1613</x:v>
       </x:c>
       <x:c r="G383" s="0" t="s">
-        <x:v>1613</x:v>
+        <x:v>1614</x:v>
       </x:c>
       <x:c r="H383" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I383" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="J383" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="K383" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L383" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M383" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N383" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="384" spans="1:14">
       <x:c r="A384" s="0" t="s">
-        <x:v>1614</x:v>
+        <x:v>1615</x:v>
       </x:c>
       <x:c r="C384" s="0" t="s">
         <x:v>1</x:v>
@@ -20287,39 +20329,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E384" s="0" t="s">
-        <x:v>1615</x:v>
+        <x:v>1616</x:v>
       </x:c>
       <x:c r="F384" s="0" t="s">
-        <x:v>1616</x:v>
+        <x:v>1617</x:v>
       </x:c>
       <x:c r="G384" s="0" t="s">
-        <x:v>1617</x:v>
+        <x:v>1618</x:v>
       </x:c>
       <x:c r="H384" s="0" t="s">
         <x:v>770</x:v>
       </x:c>
       <x:c r="I384" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="J384" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="K384" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L384" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M384" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N384" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="385" spans="1:14">
       <x:c r="A385" s="0" t="s">
-        <x:v>1618</x:v>
+        <x:v>1620</x:v>
       </x:c>
       <x:c r="C385" s="0" t="s">
         <x:v>1</x:v>
@@ -20328,39 +20370,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E385" s="0" t="s">
-        <x:v>1619</x:v>
+        <x:v>1621</x:v>
       </x:c>
       <x:c r="F385" s="0" t="s">
-        <x:v>1620</x:v>
+        <x:v>1622</x:v>
       </x:c>
       <x:c r="G385" s="0" t="s">
-        <x:v>1621</x:v>
+        <x:v>1623</x:v>
       </x:c>
       <x:c r="H385" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I385" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J385" s="0" t="s">
-        <x:v>1601</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K385" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L385" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M385" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N385" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="386" spans="1:14">
       <x:c r="A386" s="0" t="s">
-        <x:v>1622</x:v>
+        <x:v>1624</x:v>
       </x:c>
       <x:c r="C386" s="0" t="s">
         <x:v>1</x:v>
@@ -20369,39 +20411,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E386" s="0" t="s">
-        <x:v>1623</x:v>
+        <x:v>1625</x:v>
       </x:c>
       <x:c r="F386" s="0" t="s">
-        <x:v>1624</x:v>
+        <x:v>1626</x:v>
       </x:c>
       <x:c r="G386" s="0" t="s">
-        <x:v>1625</x:v>
+        <x:v>1627</x:v>
       </x:c>
       <x:c r="H386" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I386" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J386" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K386" s="0" t="s">
-        <x:v>1540</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L386" s="0" t="s">
-        <x:v>1541</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M386" s="0" t="s">
-        <x:v>1542</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N386" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="387" spans="1:14">
       <x:c r="A387" s="0" t="s">
-        <x:v>1626</x:v>
+        <x:v>1628</x:v>
       </x:c>
       <x:c r="C387" s="0" t="s">
         <x:v>1</x:v>
@@ -20410,34 +20452,34 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E387" s="0" t="s">
-        <x:v>1627</x:v>
+        <x:v>1629</x:v>
       </x:c>
       <x:c r="F387" s="0" t="s">
-        <x:v>1628</x:v>
+        <x:v>1630</x:v>
       </x:c>
       <x:c r="G387" s="0" t="s">
-        <x:v>1629</x:v>
+        <x:v>1631</x:v>
       </x:c>
       <x:c r="H387" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I387" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="J387" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="K387" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L387" s="0" t="s">
-        <x:v>1630</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M387" s="0" t="s">
-        <x:v>1631</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N387" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="388" spans="1:14">
@@ -20460,25 +20502,25 @@
         <x:v>1635</x:v>
       </x:c>
       <x:c r="H388" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I388" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="J388" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="K388" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L388" s="0" t="s">
-        <x:v>1630</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M388" s="0" t="s">
-        <x:v>1631</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N388" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="389" spans="1:14">
@@ -20501,25 +20543,25 @@
         <x:v>1639</x:v>
       </x:c>
       <x:c r="H389" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="I389" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="J389" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1619</x:v>
       </x:c>
       <x:c r="K389" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L389" s="0" t="s">
-        <x:v>1630</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M389" s="0" t="s">
-        <x:v>1631</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N389" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="390" spans="1:14">
@@ -20542,25 +20584,25 @@
         <x:v>1643</x:v>
       </x:c>
       <x:c r="H390" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I390" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="J390" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="K390" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="L390" s="0" t="s">
-        <x:v>1630</x:v>
+        <x:v>1559</x:v>
       </x:c>
       <x:c r="M390" s="0" t="s">
-        <x:v>1631</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="N390" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="391" spans="1:14">
@@ -20583,71 +20625,71 @@
         <x:v>1647</x:v>
       </x:c>
       <x:c r="H391" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I391" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J391" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K391" s="0" t="s">
         <x:v>1009</x:v>
       </x:c>
       <x:c r="L391" s="0" t="s">
-        <x:v>1630</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="M391" s="0" t="s">
-        <x:v>1631</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="N391" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="392" spans="1:14">
       <x:c r="A392" s="0" t="s">
+        <x:v>1650</x:v>
+      </x:c>
+      <x:c r="C392" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D392" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E392" s="0" t="s">
+        <x:v>1651</x:v>
+      </x:c>
+      <x:c r="F392" s="0" t="s">
+        <x:v>1652</x:v>
+      </x:c>
+      <x:c r="G392" s="0" t="s">
+        <x:v>1653</x:v>
+      </x:c>
+      <x:c r="H392" s="0" t="s">
+        <x:v>1556</x:v>
+      </x:c>
+      <x:c r="I392" s="0" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+      <x:c r="J392" s="0" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+      <x:c r="K392" s="0" t="s">
+        <x:v>1009</x:v>
+      </x:c>
+      <x:c r="L392" s="0" t="s">
         <x:v>1648</x:v>
       </x:c>
-      <x:c r="C392" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D392" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E392" s="0" t="s">
+      <x:c r="M392" s="0" t="s">
         <x:v>1649</x:v>
       </x:c>
-      <x:c r="F392" s="0" t="s">
-        <x:v>1650</x:v>
-      </x:c>
-      <x:c r="G392" s="0" t="s">
-        <x:v>1651</x:v>
-      </x:c>
-      <x:c r="H392" s="0" t="s">
-        <x:v>1393</x:v>
-      </x:c>
-      <x:c r="I392" s="0" t="s">
-        <x:v>1584</x:v>
-      </x:c>
-      <x:c r="J392" s="0" t="s">
-        <x:v>1584</x:v>
-      </x:c>
-      <x:c r="K392" s="0" t="s">
-        <x:v>1317</x:v>
-      </x:c>
-      <x:c r="L392" s="0" t="s">
-        <x:v>320</x:v>
-      </x:c>
-      <x:c r="M392" s="0" t="s">
-        <x:v>1652</x:v>
-      </x:c>
       <x:c r="N392" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="393" spans="1:14">
       <x:c r="A393" s="0" t="s">
-        <x:v>1653</x:v>
+        <x:v>1654</x:v>
       </x:c>
       <x:c r="C393" s="0" t="s">
         <x:v>1</x:v>
@@ -20656,39 +20698,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E393" s="0" t="s">
-        <x:v>1654</x:v>
+        <x:v>1655</x:v>
       </x:c>
       <x:c r="F393" s="0" t="s">
-        <x:v>1655</x:v>
+        <x:v>1656</x:v>
       </x:c>
       <x:c r="G393" s="0" t="s">
-        <x:v>1656</x:v>
+        <x:v>1657</x:v>
       </x:c>
       <x:c r="H393" s="0" t="s">
-        <x:v>1393</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I393" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J393" s="0" t="s">
-        <x:v>1584</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K393" s="0" t="s">
-        <x:v>1317</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="L393" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="M393" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="N393" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="394" spans="1:14">
       <x:c r="A394" s="0" t="s">
-        <x:v>1657</x:v>
+        <x:v>1658</x:v>
       </x:c>
       <x:c r="C394" s="0" t="s">
         <x:v>1</x:v>
@@ -20697,39 +20739,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E394" s="0" t="s">
-        <x:v>1658</x:v>
+        <x:v>1659</x:v>
       </x:c>
       <x:c r="F394" s="0" t="s">
-        <x:v>1659</x:v>
+        <x:v>1660</x:v>
       </x:c>
       <x:c r="G394" s="0" t="s">
-        <x:v>1660</x:v>
+        <x:v>1661</x:v>
       </x:c>
       <x:c r="H394" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I394" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J394" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K394" s="0" t="s">
-        <x:v>1317</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="L394" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="M394" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="N394" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="395" spans="1:14">
       <x:c r="A395" s="0" t="s">
-        <x:v>1661</x:v>
+        <x:v>1662</x:v>
       </x:c>
       <x:c r="C395" s="0" t="s">
         <x:v>1</x:v>
@@ -20738,39 +20780,39 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E395" s="0" t="s">
-        <x:v>1662</x:v>
+        <x:v>1663</x:v>
       </x:c>
       <x:c r="F395" s="0" t="s">
-        <x:v>1663</x:v>
+        <x:v>1664</x:v>
       </x:c>
       <x:c r="G395" s="0" t="s">
-        <x:v>1664</x:v>
+        <x:v>1665</x:v>
       </x:c>
       <x:c r="H395" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I395" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="J395" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="K395" s="0" t="s">
-        <x:v>1317</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="L395" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="M395" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="N395" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="396" spans="1:14">
       <x:c r="A396" s="0" t="s">
-        <x:v>1665</x:v>
+        <x:v>1666</x:v>
       </x:c>
       <x:c r="C396" s="0" t="s">
         <x:v>1</x:v>
@@ -20779,22 +20821,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E396" s="0" t="s">
-        <x:v>1666</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="F396" s="0" t="s">
-        <x:v>1667</x:v>
+        <x:v>1668</x:v>
       </x:c>
       <x:c r="G396" s="0" t="s">
-        <x:v>1668</x:v>
+        <x:v>1669</x:v>
       </x:c>
       <x:c r="H396" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I396" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="J396" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="K396" s="0" t="s">
         <x:v>1317</x:v>
@@ -20803,15 +20845,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M396" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N396" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="397" spans="1:14">
       <x:c r="A397" s="0" t="s">
-        <x:v>1669</x:v>
+        <x:v>1671</x:v>
       </x:c>
       <x:c r="C397" s="0" t="s">
         <x:v>1</x:v>
@@ -20820,22 +20862,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E397" s="0" t="s">
-        <x:v>1670</x:v>
+        <x:v>1672</x:v>
       </x:c>
       <x:c r="F397" s="0" t="s">
-        <x:v>1671</x:v>
+        <x:v>1673</x:v>
       </x:c>
       <x:c r="G397" s="0" t="s">
-        <x:v>1672</x:v>
+        <x:v>1674</x:v>
       </x:c>
       <x:c r="H397" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="I397" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="J397" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1602</x:v>
       </x:c>
       <x:c r="K397" s="0" t="s">
         <x:v>1317</x:v>
@@ -20844,15 +20886,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M397" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N397" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="398" spans="1:14">
       <x:c r="A398" s="0" t="s">
-        <x:v>1673</x:v>
+        <x:v>1675</x:v>
       </x:c>
       <x:c r="C398" s="0" t="s">
         <x:v>1</x:v>
@@ -20861,22 +20903,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E398" s="0" t="s">
-        <x:v>1674</x:v>
+        <x:v>1676</x:v>
       </x:c>
       <x:c r="F398" s="0" t="s">
-        <x:v>1675</x:v>
+        <x:v>1677</x:v>
       </x:c>
       <x:c r="G398" s="0" t="s">
-        <x:v>1676</x:v>
+        <x:v>1678</x:v>
       </x:c>
       <x:c r="H398" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I398" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J398" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K398" s="0" t="s">
         <x:v>1317</x:v>
@@ -20885,15 +20927,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M398" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N398" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="399" spans="1:14">
       <x:c r="A399" s="0" t="s">
-        <x:v>1677</x:v>
+        <x:v>1679</x:v>
       </x:c>
       <x:c r="C399" s="0" t="s">
         <x:v>1</x:v>
@@ -20902,22 +20944,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E399" s="0" t="s">
-        <x:v>1678</x:v>
+        <x:v>1680</x:v>
       </x:c>
       <x:c r="F399" s="0" t="s">
-        <x:v>1679</x:v>
+        <x:v>1681</x:v>
       </x:c>
       <x:c r="G399" s="0" t="s">
-        <x:v>1680</x:v>
+        <x:v>1682</x:v>
       </x:c>
       <x:c r="H399" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I399" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J399" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K399" s="0" t="s">
         <x:v>1317</x:v>
@@ -20926,15 +20968,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M399" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N399" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="400" spans="1:14">
       <x:c r="A400" s="0" t="s">
-        <x:v>1681</x:v>
+        <x:v>1683</x:v>
       </x:c>
       <x:c r="C400" s="0" t="s">
         <x:v>1</x:v>
@@ -20943,22 +20985,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E400" s="0" t="s">
-        <x:v>1682</x:v>
+        <x:v>1684</x:v>
       </x:c>
       <x:c r="F400" s="0" t="s">
-        <x:v>1683</x:v>
+        <x:v>1685</x:v>
       </x:c>
       <x:c r="G400" s="0" t="s">
-        <x:v>1684</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="H400" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I400" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J400" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K400" s="0" t="s">
         <x:v>1317</x:v>
@@ -20967,15 +21009,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M400" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N400" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="401" spans="1:14">
       <x:c r="A401" s="0" t="s">
-        <x:v>1685</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="C401" s="0" t="s">
         <x:v>1</x:v>
@@ -20984,22 +21026,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E401" s="0" t="s">
-        <x:v>1686</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="F401" s="0" t="s">
-        <x:v>1687</x:v>
+        <x:v>1689</x:v>
       </x:c>
       <x:c r="G401" s="0" t="s">
-        <x:v>1688</x:v>
+        <x:v>1690</x:v>
       </x:c>
       <x:c r="H401" s="0" t="s">
-        <x:v>1689</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I401" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J401" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K401" s="0" t="s">
         <x:v>1317</x:v>
@@ -21008,15 +21050,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M401" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N401" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="402" spans="1:14">
       <x:c r="A402" s="0" t="s">
-        <x:v>1690</x:v>
+        <x:v>1691</x:v>
       </x:c>
       <x:c r="C402" s="0" t="s">
         <x:v>1</x:v>
@@ -21025,22 +21067,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E402" s="0" t="s">
-        <x:v>1691</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="F402" s="0" t="s">
-        <x:v>1692</x:v>
+        <x:v>1693</x:v>
       </x:c>
       <x:c r="G402" s="0" t="s">
-        <x:v>1693</x:v>
+        <x:v>1694</x:v>
       </x:c>
       <x:c r="H402" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I402" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J402" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K402" s="0" t="s">
         <x:v>1317</x:v>
@@ -21049,10 +21091,10 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M402" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N402" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="403" spans="1:14">
@@ -21075,13 +21117,13 @@
         <x:v>1698</x:v>
       </x:c>
       <x:c r="H403" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I403" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J403" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K403" s="0" t="s">
         <x:v>1317</x:v>
@@ -21090,10 +21132,10 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M403" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N403" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="404" spans="1:14">
@@ -21116,13 +21158,13 @@
         <x:v>1702</x:v>
       </x:c>
       <x:c r="H404" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I404" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J404" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K404" s="0" t="s">
         <x:v>1317</x:v>
@@ -21131,10 +21173,10 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M404" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N404" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="405" spans="1:14">
@@ -21157,13 +21199,13 @@
         <x:v>1706</x:v>
       </x:c>
       <x:c r="H405" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1707</x:v>
       </x:c>
       <x:c r="I405" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J405" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K405" s="0" t="s">
         <x:v>1317</x:v>
@@ -21172,15 +21214,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M405" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N405" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="406" spans="1:14">
       <x:c r="A406" s="0" t="s">
-        <x:v>1707</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="C406" s="0" t="s">
         <x:v>1</x:v>
@@ -21189,22 +21231,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E406" s="0" t="s">
-        <x:v>1708</x:v>
+        <x:v>1709</x:v>
       </x:c>
       <x:c r="F406" s="0" t="s">
-        <x:v>1709</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="G406" s="0" t="s">
-        <x:v>1710</x:v>
+        <x:v>1711</x:v>
       </x:c>
       <x:c r="H406" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="I406" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="J406" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="K406" s="0" t="s">
         <x:v>1317</x:v>
@@ -21213,15 +21255,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M406" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N406" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="407" spans="1:14">
       <x:c r="A407" s="0" t="s">
-        <x:v>1711</x:v>
+        <x:v>1713</x:v>
       </x:c>
       <x:c r="C407" s="0" t="s">
         <x:v>1</x:v>
@@ -21230,22 +21272,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E407" s="0" t="s">
-        <x:v>1712</x:v>
+        <x:v>1714</x:v>
       </x:c>
       <x:c r="F407" s="0" t="s">
-        <x:v>1713</x:v>
+        <x:v>1715</x:v>
       </x:c>
       <x:c r="G407" s="0" t="s">
-        <x:v>1714</x:v>
+        <x:v>1716</x:v>
       </x:c>
       <x:c r="H407" s="0" t="s">
-        <x:v>1538</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I407" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="J407" s="0" t="s">
-        <x:v>1539</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="K407" s="0" t="s">
         <x:v>1317</x:v>
@@ -21254,15 +21296,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M407" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N407" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="408" spans="1:14">
       <x:c r="A408" s="0" t="s">
-        <x:v>1715</x:v>
+        <x:v>1717</x:v>
       </x:c>
       <x:c r="C408" s="0" t="s">
         <x:v>1</x:v>
@@ -21271,22 +21313,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E408" s="0" t="s">
-        <x:v>1716</x:v>
+        <x:v>1718</x:v>
       </x:c>
       <x:c r="F408" s="0" t="s">
-        <x:v>1717</x:v>
+        <x:v>1719</x:v>
       </x:c>
       <x:c r="G408" s="0" t="s">
-        <x:v>1718</x:v>
+        <x:v>1720</x:v>
       </x:c>
       <x:c r="H408" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I408" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="J408" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="K408" s="0" t="s">
         <x:v>1317</x:v>
@@ -21295,15 +21337,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M408" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N408" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="409" spans="1:14">
       <x:c r="A409" s="0" t="s">
-        <x:v>1719</x:v>
+        <x:v>1721</x:v>
       </x:c>
       <x:c r="C409" s="0" t="s">
         <x:v>1</x:v>
@@ -21312,22 +21354,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E409" s="0" t="s">
-        <x:v>1720</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="F409" s="0" t="s">
-        <x:v>1721</x:v>
+        <x:v>1723</x:v>
       </x:c>
       <x:c r="G409" s="0" t="s">
-        <x:v>1722</x:v>
+        <x:v>1724</x:v>
       </x:c>
       <x:c r="H409" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>1372</x:v>
       </x:c>
       <x:c r="I409" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="J409" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1597</x:v>
       </x:c>
       <x:c r="K409" s="0" t="s">
         <x:v>1317</x:v>
@@ -21336,15 +21378,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M409" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N409" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="410" spans="1:14">
       <x:c r="A410" s="0" t="s">
-        <x:v>1723</x:v>
+        <x:v>1725</x:v>
       </x:c>
       <x:c r="C410" s="0" t="s">
         <x:v>1</x:v>
@@ -21353,22 +21395,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E410" s="0" t="s">
-        <x:v>1724</x:v>
+        <x:v>1726</x:v>
       </x:c>
       <x:c r="F410" s="0" t="s">
-        <x:v>1725</x:v>
+        <x:v>1727</x:v>
       </x:c>
       <x:c r="G410" s="0" t="s">
-        <x:v>1726</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="H410" s="0" t="s">
-        <x:v>1384</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I410" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J410" s="0" t="s">
-        <x:v>1694</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K410" s="0" t="s">
         <x:v>1317</x:v>
@@ -21377,15 +21419,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M410" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N410" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="411" spans="1:14">
       <x:c r="A411" s="0" t="s">
-        <x:v>1727</x:v>
+        <x:v>1729</x:v>
       </x:c>
       <x:c r="C411" s="0" t="s">
         <x:v>1</x:v>
@@ -21394,22 +21436,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E411" s="0" t="s">
-        <x:v>1728</x:v>
+        <x:v>1730</x:v>
       </x:c>
       <x:c r="F411" s="0" t="s">
-        <x:v>1729</x:v>
+        <x:v>1731</x:v>
       </x:c>
       <x:c r="G411" s="0" t="s">
-        <x:v>1730</x:v>
+        <x:v>1732</x:v>
       </x:c>
       <x:c r="H411" s="0" t="s">
-        <x:v>1346</x:v>
+        <x:v>1556</x:v>
       </x:c>
       <x:c r="I411" s="0" t="s">
-        <x:v>1731</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="J411" s="0" t="s">
-        <x:v>1731</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="K411" s="0" t="s">
         <x:v>1317</x:v>
@@ -21418,15 +21460,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M411" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N411" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="412" spans="1:14">
       <x:c r="A412" s="0" t="s">
-        <x:v>1732</x:v>
+        <x:v>1733</x:v>
       </x:c>
       <x:c r="C412" s="0" t="s">
         <x:v>1</x:v>
@@ -21435,22 +21477,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E412" s="0" t="s">
-        <x:v>1733</x:v>
+        <x:v>1734</x:v>
       </x:c>
       <x:c r="F412" s="0" t="s">
-        <x:v>1734</x:v>
+        <x:v>1735</x:v>
       </x:c>
       <x:c r="G412" s="0" t="s">
-        <x:v>1735</x:v>
+        <x:v>1736</x:v>
       </x:c>
       <x:c r="H412" s="0" t="s">
-        <x:v>1346</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="I412" s="0" t="s">
-        <x:v>1731</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="J412" s="0" t="s">
-        <x:v>1731</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="K412" s="0" t="s">
         <x:v>1317</x:v>
@@ -21459,15 +21501,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M412" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N412" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="413" spans="1:14">
       <x:c r="A413" s="0" t="s">
-        <x:v>1736</x:v>
+        <x:v>1737</x:v>
       </x:c>
       <x:c r="C413" s="0" t="s">
         <x:v>1</x:v>
@@ -21476,22 +21518,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E413" s="0" t="s">
-        <x:v>1737</x:v>
+        <x:v>1738</x:v>
       </x:c>
       <x:c r="F413" s="0" t="s">
-        <x:v>1738</x:v>
+        <x:v>1739</x:v>
       </x:c>
       <x:c r="G413" s="0" t="s">
-        <x:v>1739</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="H413" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="I413" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="J413" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="K413" s="0" t="s">
         <x:v>1317</x:v>
@@ -21500,15 +21542,15 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M413" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N413" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="414" spans="1:14">
       <x:c r="A414" s="0" t="s">
-        <x:v>1740</x:v>
+        <x:v>1741</x:v>
       </x:c>
       <x:c r="C414" s="0" t="s">
         <x:v>1</x:v>
@@ -21517,22 +21559,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E414" s="0" t="s">
-        <x:v>1741</x:v>
+        <x:v>1742</x:v>
       </x:c>
       <x:c r="F414" s="0" t="s">
-        <x:v>1742</x:v>
+        <x:v>1743</x:v>
       </x:c>
       <x:c r="G414" s="0" t="s">
-        <x:v>1743</x:v>
+        <x:v>1744</x:v>
       </x:c>
       <x:c r="H414" s="0" t="s">
-        <x:v>1354</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="I414" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="J414" s="0" t="s">
-        <x:v>1579</x:v>
+        <x:v>1712</x:v>
       </x:c>
       <x:c r="K414" s="0" t="s">
         <x:v>1317</x:v>
@@ -21541,10 +21583,174 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="M414" s="0" t="s">
-        <x:v>1652</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="N414" s="0" t="s">
-        <x:v>1349</x:v>
+        <x:v>1367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="415" spans="1:14">
+      <x:c r="A415" s="0" t="s">
+        <x:v>1745</x:v>
+      </x:c>
+      <x:c r="C415" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D415" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E415" s="0" t="s">
+        <x:v>1746</x:v>
+      </x:c>
+      <x:c r="F415" s="0" t="s">
+        <x:v>1747</x:v>
+      </x:c>
+      <x:c r="G415" s="0" t="s">
+        <x:v>1748</x:v>
+      </x:c>
+      <x:c r="H415" s="0" t="s">
+        <x:v>1364</x:v>
+      </x:c>
+      <x:c r="I415" s="0" t="s">
+        <x:v>1749</x:v>
+      </x:c>
+      <x:c r="J415" s="0" t="s">
+        <x:v>1749</x:v>
+      </x:c>
+      <x:c r="K415" s="0" t="s">
+        <x:v>1317</x:v>
+      </x:c>
+      <x:c r="L415" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="M415" s="0" t="s">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="N415" s="0" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="416" spans="1:14">
+      <x:c r="A416" s="0" t="s">
+        <x:v>1750</x:v>
+      </x:c>
+      <x:c r="C416" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D416" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E416" s="0" t="s">
+        <x:v>1751</x:v>
+      </x:c>
+      <x:c r="F416" s="0" t="s">
+        <x:v>1752</x:v>
+      </x:c>
+      <x:c r="G416" s="0" t="s">
+        <x:v>1753</x:v>
+      </x:c>
+      <x:c r="H416" s="0" t="s">
+        <x:v>1364</x:v>
+      </x:c>
+      <x:c r="I416" s="0" t="s">
+        <x:v>1749</x:v>
+      </x:c>
+      <x:c r="J416" s="0" t="s">
+        <x:v>1749</x:v>
+      </x:c>
+      <x:c r="K416" s="0" t="s">
+        <x:v>1317</x:v>
+      </x:c>
+      <x:c r="L416" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="M416" s="0" t="s">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="N416" s="0" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="417" spans="1:14">
+      <x:c r="A417" s="0" t="s">
+        <x:v>1754</x:v>
+      </x:c>
+      <x:c r="C417" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D417" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E417" s="0" t="s">
+        <x:v>1755</x:v>
+      </x:c>
+      <x:c r="F417" s="0" t="s">
+        <x:v>1756</x:v>
+      </x:c>
+      <x:c r="G417" s="0" t="s">
+        <x:v>1757</x:v>
+      </x:c>
+      <x:c r="H417" s="0" t="s">
+        <x:v>1372</x:v>
+      </x:c>
+      <x:c r="I417" s="0" t="s">
+        <x:v>1597</x:v>
+      </x:c>
+      <x:c r="J417" s="0" t="s">
+        <x:v>1597</x:v>
+      </x:c>
+      <x:c r="K417" s="0" t="s">
+        <x:v>1317</x:v>
+      </x:c>
+      <x:c r="L417" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="M417" s="0" t="s">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="N417" s="0" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="418" spans="1:14">
+      <x:c r="A418" s="0" t="s">
+        <x:v>1758</x:v>
+      </x:c>
+      <x:c r="C418" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D418" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E418" s="0" t="s">
+        <x:v>1759</x:v>
+      </x:c>
+      <x:c r="F418" s="0" t="s">
+        <x:v>1760</x:v>
+      </x:c>
+      <x:c r="G418" s="0" t="s">
+        <x:v>1761</x:v>
+      </x:c>
+      <x:c r="H418" s="0" t="s">
+        <x:v>1372</x:v>
+      </x:c>
+      <x:c r="I418" s="0" t="s">
+        <x:v>1597</x:v>
+      </x:c>
+      <x:c r="J418" s="0" t="s">
+        <x:v>1597</x:v>
+      </x:c>
+      <x:c r="K418" s="0" t="s">
+        <x:v>1317</x:v>
+      </x:c>
+      <x:c r="L418" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="M418" s="0" t="s">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="N418" s="0" t="s">
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
